--- a/sudoku/src/test/resources/com/saber/rule/impl/RemoveDuplicatedPossible.xlsx
+++ b/sudoku/src/test/resources/com/saber/rule/impl/RemoveDuplicatedPossible.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
@@ -177,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +355,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -682,7 +688,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,52 +720,58 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -772,7 +784,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1061,7 +1073,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1130,7 +1142,7 @@
       <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="3">
         <v>7</v>
       </c>
@@ -1153,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="6">
         <v>2</v>
       </c>
